--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,14 +926,339 @@
           <t>주저(hesitation)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20230214</t>
-        </is>
+      <c r="D20" t="n">
+        <v>20230214</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>22시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>恣意性</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>세도가</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>자의성</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>村度</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>화합(Harmony)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>촌탁</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>忌憚</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>개탄(Deeply)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>기탄(fear)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>對策</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>서막(prelude)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>대책(Countermeasure)</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>錦繡</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>계기(Opportunity)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>금수 : 수를 놓은 비단</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>參加</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>기호(mark)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>참가(join)</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>골몰(No)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>알력(Friction):의견이 달라 충돌함</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>掌握</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>화목(harmony)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>장악(master)</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>邁進</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>토의(discussion)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>매진</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>기반(basis)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>勢力</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>고려(consider)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>세력(power)</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>鍊磨長養</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>간어제초</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>연마장양</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>聯關</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>맹약(Appointment)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>연관(Associate)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20230215</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21시 58분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1251,14 +1251,515 @@
           <t>연관(Associate)</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>20230215</t>
-        </is>
+      <c r="D33" t="n">
+        <v>20230215</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>21시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>慇懃</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>건곤(Unbroken)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>은근(Courtesy)</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>00시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>慇懃</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>투사(projection)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>은근(Courtesy)</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>百尺竿頭</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>백척간두: 
+「백 자나 되는 높은 장대 위에 올라섰다」
+위태로움이 극도에 달함</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>亡羊補牢</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>금석맹약</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>망양보뢰: 
+1)「양을 잃고서 그 우리를 고친다」
+2)실패한 후에 일을 대비함
+3)이미 어떤 일을 실패한 뒤에 뉘우쳐도 소용이 없음</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>負傷</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>구명</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>부상</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>凝視</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>시기</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>응시</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>受賞</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>유실</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>수상:상을 받음</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>選擇</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>선택</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>抛棄</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>활주</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>포기</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>건곤(Unbroken)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>곤욕(Disgrace)</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>소실(disappear)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>화폐(currency)</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>起爆劑</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>몰상식</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>기폭제</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>選擇</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>신설(Newly established)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>선택(choose)</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>不動産</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>불가피</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>更任</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>거부</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>경임</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>길조</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>조세</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>기탄</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>호흡</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>姉妹</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>삭막</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>자매</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>默念</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>멸망</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>묵념</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>構造</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>구조</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20230218</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23시 05분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1752,14 +1752,764 @@
           <t>구조</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>20230218</t>
-        </is>
+      <c r="D53" t="n">
+        <v>20230218</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>23시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>敬歎</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>달변</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>경탄:우러르며 감탄하다</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>販賣</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>반영</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>판매</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>18시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>規則</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>상식</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>규칙</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>18시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>遺憾</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>회무</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>유감</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>18시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>選擇</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>논쟁</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>선택</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>18시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>立夏</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>선출</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>입하</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>18시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>統制</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>망각</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>통제</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>18시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>成實</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>성실</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>18시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>捕捉</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>포착</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>18시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>選擧</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>광장</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>선거</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>18시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>背馳</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>개량</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>배치</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>18시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>自鳴鐘</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>자의적</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>자명종</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>18시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>財貨</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>내과</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>재화</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>18시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>記號</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>금기</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>기호:부호, 문자, 표지</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>18시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>변조</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>역할</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>18시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>關聯</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>첩경</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>관련</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>18시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>하지</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>지지</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>18시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>肺炎</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>통화</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>폐렴</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>18시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>捕捉</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>발발</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>포착</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>兆民有和</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>언중유골</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>조민유화: 국민의 화합과 나아가 인류의 화합을 지향한다,을 나타냄</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>對處</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>난해</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>대처 : 어떤 정세나 사건에 대하여 알맞은 조치를 취함</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>위력</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>규율</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>視線</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>유세</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>시선</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>난해</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>역할</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>權勢</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>최촉</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>권세</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>關聯</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>게양</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>관련</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>통치</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>진서</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>永有</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>활로</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>영유</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>契機</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>상쇄</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>계기</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>話題</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>소실</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>화제</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>20230220</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
         </is>
       </c>
     </row>
